--- a/data/trans_orig/P70B_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P70B_2023-Provincia-trans_orig.xlsx
@@ -788,19 +788,19 @@
         <v>9360</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4517</v>
+        <v>4516</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17210</v>
+        <v>17402</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.04678593594292253</v>
+        <v>0.04678593594292254</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02257756763613425</v>
+        <v>0.02257535904905494</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08602790219326149</v>
+        <v>0.08698667588778927</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>11</v>
@@ -809,19 +809,19 @@
         <v>7194</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4036</v>
+        <v>3894</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>13283</v>
+        <v>13054</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04755269451502804</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02667651865221653</v>
+        <v>0.02573895754978455</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08780391593058887</v>
+        <v>0.0862932145840372</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>20</v>
@@ -830,19 +830,19 @@
         <v>16553</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>10047</v>
+        <v>9727</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>26256</v>
+        <v>24900</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04711609308595275</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0285959030608897</v>
+        <v>0.02768517725531408</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07473199785469642</v>
+        <v>0.07087402682125851</v>
       </c>
     </row>
     <row r="6">
@@ -859,19 +859,19 @@
         <v>138502</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>124113</v>
+        <v>123704</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>151487</v>
+        <v>150841</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.6923311500812621</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6204012289375171</v>
+        <v>0.6183574500318608</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7572373438544566</v>
+        <v>0.7540083344028521</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>183</v>
@@ -880,19 +880,19 @@
         <v>105778</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>96215</v>
+        <v>95948</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>113719</v>
+        <v>114621</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.6992243722563941</v>
+        <v>0.699224372256394</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.63601170081356</v>
+        <v>0.6342486313999937</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7517187732979916</v>
+        <v>0.7576801840883777</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>321</v>
@@ -901,19 +901,19 @@
         <v>244280</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>228250</v>
+        <v>229563</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>260375</v>
+        <v>261255</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6952992897570464</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6496719341927795</v>
+        <v>0.6534080717431503</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7411113733364239</v>
+        <v>0.7436148059470652</v>
       </c>
     </row>
     <row r="7">
@@ -930,19 +930,19 @@
         <v>52190</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>40686</v>
+        <v>40893</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>65936</v>
+        <v>66127</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.2608829139758153</v>
+        <v>0.2608829139758154</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2033753778176954</v>
+        <v>0.2044094967116518</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.329592856560942</v>
+        <v>0.3305511751380262</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>60</v>
@@ -951,19 +951,19 @@
         <v>38307</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>30742</v>
+        <v>30193</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>47780</v>
+        <v>47352</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2532229332285781</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2032158218640389</v>
+        <v>0.19958796742072</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3158388198544257</v>
+        <v>0.3130136125592722</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>112</v>
@@ -972,19 +972,19 @@
         <v>90497</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>75438</v>
+        <v>74397</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>104982</v>
+        <v>104149</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2575846171570009</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2147212875833259</v>
+        <v>0.2117587472522188</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2988130981856724</v>
+        <v>0.2964404809964785</v>
       </c>
     </row>
     <row r="8">
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7255</v>
+        <v>7495</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.005845855958103738</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02952968243408766</v>
+        <v>0.03050696420518192</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>7</v>
@@ -1097,19 +1097,19 @@
         <v>5366</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2229</v>
+        <v>2332</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>10996</v>
+        <v>11157</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.03112715934448836</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01293015215793945</v>
+        <v>0.01353065881983529</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.06378628400338181</v>
+        <v>0.06472173631521301</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>8</v>
@@ -1118,19 +1118,19 @@
         <v>6802</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>3175</v>
+        <v>3184</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>12955</v>
+        <v>13801</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01627039550965835</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.007594714062683101</v>
+        <v>0.007616350437291189</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03098765484777538</v>
+        <v>0.03301077639635262</v>
       </c>
     </row>
     <row r="10">
@@ -1147,19 +1147,19 @@
         <v>56049</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>40996</v>
+        <v>38388</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>76515</v>
+        <v>74820</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2281387764982357</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1668677694336455</v>
+        <v>0.1562520855393329</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3114409438323532</v>
+        <v>0.3045435214901472</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>41</v>
@@ -1168,19 +1168,19 @@
         <v>35388</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>25604</v>
+        <v>27251</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>46815</v>
+        <v>46181</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2052859619254928</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1485298484428356</v>
+        <v>0.1580830227423247</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.271570796257708</v>
+        <v>0.267891619675707</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>74</v>
@@ -1189,19 +1189,19 @@
         <v>91438</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>72525</v>
+        <v>73501</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>114168</v>
+        <v>113342</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2187156045305197</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1734781260151091</v>
+        <v>0.1758115295280648</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2730867363927748</v>
+        <v>0.271111311422681</v>
       </c>
     </row>
     <row r="11">
@@ -1218,19 +1218,19 @@
         <v>158054</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>137137</v>
+        <v>137626</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>175830</v>
+        <v>176664</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6433335932475064</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5581929687144915</v>
+        <v>0.5601855881867139</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7156872120436069</v>
+        <v>0.7190829016462785</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>137</v>
@@ -1239,19 +1239,19 @@
         <v>112336</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>100035</v>
+        <v>99060</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>124096</v>
+        <v>122817</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.65165402729064</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5802978765046718</v>
+        <v>0.574641008636811</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7198753556990924</v>
+        <v>0.7124534312603478</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>247</v>
@@ -1260,19 +1260,19 @@
         <v>270390</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>248733</v>
+        <v>246724</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>292790</v>
+        <v>289555</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.6467644564606532</v>
+        <v>0.6467644564606531</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5949618473242788</v>
+        <v>0.5901549476604043</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7003429752814898</v>
+        <v>0.6926068226367234</v>
       </c>
     </row>
     <row r="12">
@@ -1289,19 +1289,19 @@
         <v>30140</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>19706</v>
+        <v>19607</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>45458</v>
+        <v>45828</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1226817742961542</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08020978226016101</v>
+        <v>0.07980874979835589</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1850306818739903</v>
+        <v>0.1865360156799339</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>23</v>
@@ -1310,19 +1310,19 @@
         <v>19296</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>12822</v>
+        <v>12360</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>27865</v>
+        <v>28764</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.1119328514393789</v>
+        <v>0.1119328514393788</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07437869354342264</v>
+        <v>0.07170026892146657</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1616451967455524</v>
+        <v>0.1668553998594895</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>44</v>
@@ -1331,19 +1331,19 @@
         <v>49436</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>36170</v>
+        <v>36930</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>68530</v>
+        <v>65107</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1182495434991688</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08651692538046403</v>
+        <v>0.08833584151340251</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1639203375756718</v>
+        <v>0.1557334613083831</v>
       </c>
     </row>
     <row r="13">
@@ -1435,19 +1435,19 @@
         <v>8998</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4184</v>
+        <v>3897</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>16761</v>
+        <v>17157</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.06067570110218363</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02821563462129187</v>
+        <v>0.02627847834326566</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1130168309317097</v>
+        <v>0.1156915563045517</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>10</v>
@@ -1456,19 +1456,19 @@
         <v>6768</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3389</v>
+        <v>3345</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>11727</v>
+        <v>12736</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.05625574792748363</v>
+        <v>0.05625574792748364</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02816795583212052</v>
+        <v>0.02780676043716981</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.09748506572170278</v>
+        <v>0.1058706773186677</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>19</v>
@@ -1477,19 +1477,19 @@
         <v>15766</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>10091</v>
+        <v>9514</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>24349</v>
+        <v>23812</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0586961246449078</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0375669585079209</v>
+        <v>0.0354190619372837</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.09065136742581098</v>
+        <v>0.08865096947508387</v>
       </c>
     </row>
     <row r="15">
@@ -1506,19 +1506,19 @@
         <v>34045</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>24544</v>
+        <v>25127</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>44607</v>
+        <v>45759</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2295622261419445</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1654983366640035</v>
+        <v>0.1694318302440646</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3007864360759986</v>
+        <v>0.3085506227988568</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>32</v>
@@ -1527,19 +1527,19 @@
         <v>24114</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>16943</v>
+        <v>16849</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>31509</v>
+        <v>31897</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2004503283862421</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1408414351473141</v>
+        <v>0.1400598334975068</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.26192551640062</v>
+        <v>0.2651467574360122</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>67</v>
@@ -1548,19 +1548,19 @@
         <v>58159</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>46084</v>
+        <v>45537</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>71946</v>
+        <v>69758</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.2165238012659341</v>
+        <v>0.2165238012659342</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1715689019839599</v>
+        <v>0.169532541353436</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2678534212139404</v>
+        <v>0.2597073134399662</v>
       </c>
     </row>
     <row r="16">
@@ -1577,19 +1577,19 @@
         <v>67019</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>55110</v>
+        <v>54204</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>78821</v>
+        <v>77617</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4519091524058083</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3716096383745441</v>
+        <v>0.3654962869741225</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5314883439067977</v>
+        <v>0.5233721932127412</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>76</v>
@@ -1598,19 +1598,19 @@
         <v>54578</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>45383</v>
+        <v>45058</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>64676</v>
+        <v>63492</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.4536882768511934</v>
+        <v>0.4536882768511935</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3772527089469315</v>
+        <v>0.3745487514335195</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5376246816450418</v>
+        <v>0.5277881085345042</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>144</v>
@@ -1619,19 +1619,19 @@
         <v>121597</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>106738</v>
+        <v>108471</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>136931</v>
+        <v>137317</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4527059737130583</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3973866362793179</v>
+        <v>0.4038352476651468</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5097915314511823</v>
+        <v>0.5112300260999219</v>
       </c>
     </row>
     <row r="17">
@@ -1648,19 +1648,19 @@
         <v>38240</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>29281</v>
+        <v>28557</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>49265</v>
+        <v>49944</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2578529203500636</v>
+        <v>0.2578529203500637</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1974422732400591</v>
+        <v>0.1925589990879582</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3321928341547035</v>
+        <v>0.3367734302846311</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>46</v>
@@ -1669,19 +1669,19 @@
         <v>34839</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>26754</v>
+        <v>26421</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>43731</v>
+        <v>43685</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.2896056468350809</v>
+        <v>0.2896056468350808</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2223976580115006</v>
+        <v>0.2196277904717604</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3635198666586998</v>
+        <v>0.3631379109515145</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>84</v>
@@ -1690,19 +1690,19 @@
         <v>73079</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>61228</v>
+        <v>60060</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>87899</v>
+        <v>87502</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2720741003760998</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2279505534067611</v>
+        <v>0.2236032159237256</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3272489521872045</v>
+        <v>0.3257705196664684</v>
       </c>
     </row>
     <row r="18">
@@ -1794,19 +1794,19 @@
         <v>17831</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9067</v>
+        <v>8429</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>32077</v>
+        <v>31836</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.08522309958310517</v>
+        <v>0.08522309958310516</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04333494193827724</v>
+        <v>0.04028675751255605</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1533095116554447</v>
+        <v>0.152154595853265</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>13</v>
@@ -1815,19 +1815,19 @@
         <v>10185</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5223</v>
+        <v>5972</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>16345</v>
+        <v>17904</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05768728877535324</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02958200996049047</v>
+        <v>0.03382787191868262</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09257948754978924</v>
+        <v>0.1014108817368004</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>23</v>
@@ -1836,19 +1836,19 @@
         <v>28016</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>17417</v>
+        <v>17206</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>44381</v>
+        <v>45292</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07262159202886916</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04514789211556178</v>
+        <v>0.04460055220628925</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1150406905723013</v>
+        <v>0.1174019413336388</v>
       </c>
     </row>
     <row r="20">
@@ -1865,19 +1865,19 @@
         <v>22591</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>10630</v>
+        <v>11376</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>39874</v>
+        <v>39872</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1079733508192365</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05080567206302748</v>
+        <v>0.05437053850027866</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1905715916047491</v>
+        <v>0.1905612744381239</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>25</v>
@@ -1886,19 +1886,19 @@
         <v>23722</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>15974</v>
+        <v>15641</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>34753</v>
+        <v>34025</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1343659798740351</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09047860260160268</v>
+        <v>0.08859352819119874</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.196847404645693</v>
+        <v>0.1927236765633798</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>36</v>
@@ -1907,19 +1907,19 @@
         <v>46314</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>32247</v>
+        <v>31801</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>68085</v>
+        <v>66570</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1200516918832506</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0835882738596639</v>
+        <v>0.08243261115807771</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1764849029078489</v>
+        <v>0.172558211380367</v>
       </c>
     </row>
     <row r="21">
@@ -1936,19 +1936,19 @@
         <v>63945</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>47821</v>
+        <v>47200</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>84567</v>
+        <v>81933</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3056160443265198</v>
+        <v>0.3056160443265197</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2285571611201669</v>
+        <v>0.2255885329811537</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4041790768992349</v>
+        <v>0.3915872050114706</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>90</v>
@@ -1957,19 +1957,19 @@
         <v>85986</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>73576</v>
+        <v>71314</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>99520</v>
+        <v>99058</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4870367824070945</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4167473921307848</v>
+        <v>0.4039352957957632</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5636948188749138</v>
+        <v>0.5610789291063384</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>130</v>
@@ -1978,19 +1978,19 @@
         <v>149931</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>128028</v>
+        <v>127446</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>173648</v>
+        <v>174516</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3886415567175995</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.331866939032124</v>
+        <v>0.3303587395210484</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4501191865369384</v>
+        <v>0.4523693202443567</v>
       </c>
     </row>
     <row r="22">
@@ -2007,19 +2007,19 @@
         <v>104864</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>85518</v>
+        <v>86642</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>125244</v>
+        <v>127129</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.5011875052711385</v>
+        <v>0.5011875052711384</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4087218229348218</v>
+        <v>0.4140962958773587</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5985874819726653</v>
+        <v>0.6075983006330044</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>67</v>
@@ -2028,19 +2028,19 @@
         <v>56656</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>44820</v>
+        <v>44954</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>70430</v>
+        <v>70615</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.3209099489435173</v>
+        <v>0.3209099489435174</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.253866976492477</v>
+        <v>0.254625804711864</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3989281379386816</v>
+        <v>0.3999731634731946</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>129</v>
@@ -2049,19 +2049,19 @@
         <v>161521</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>138373</v>
+        <v>137406</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>186267</v>
+        <v>186806</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.4186851593702807</v>
+        <v>0.4186851593702808</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.358682633960154</v>
+        <v>0.3561742681070205</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.482828538562078</v>
+        <v>0.4842271927804795</v>
       </c>
     </row>
     <row r="23">
@@ -2156,16 +2156,16 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3649</v>
+        <v>3292</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.004855534685613496</v>
+        <v>0.004855534685613497</v>
       </c>
       <c r="H24" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.02728073495551312</v>
+        <v>0.02461104413014392</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>0</v>
@@ -2190,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>3376</v>
+        <v>3312</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.002581850594789659</v>
@@ -2199,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01342166403356466</v>
+        <v>0.01316821059199172</v>
       </c>
     </row>
     <row r="25">
@@ -2216,19 +2216,19 @@
         <v>5296</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2188</v>
+        <v>2212</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>10678</v>
+        <v>11001</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.03960021382308011</v>
+        <v>0.03960021382308012</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01635860642038611</v>
+        <v>0.0165425466311596</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07983548003604597</v>
+        <v>0.0822521018115368</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>7</v>
@@ -2237,19 +2237,19 @@
         <v>3889</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1736</v>
+        <v>1696</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>9356</v>
+        <v>8386</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.03301988303843011</v>
+        <v>0.0330198830384301</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01473503864126753</v>
+        <v>0.01439777364299558</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07943072785563111</v>
+        <v>0.07119652118114576</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>14</v>
@@ -2258,19 +2258,19 @@
         <v>9186</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4891</v>
+        <v>5426</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>14935</v>
+        <v>15659</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03651886555020155</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01944403413002193</v>
+        <v>0.02157062477455273</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0593761288842233</v>
+        <v>0.06225710522045535</v>
       </c>
     </row>
     <row r="26">
@@ -2287,19 +2287,19 @@
         <v>96923</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>86852</v>
+        <v>87471</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>105982</v>
+        <v>106063</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.72468051738053</v>
+        <v>0.7246805173805302</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.649383846263914</v>
+        <v>0.6540092363433435</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7924130384740417</v>
+        <v>0.7930202380086275</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>167</v>
@@ -2308,19 +2308,19 @@
         <v>79175</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>70371</v>
+        <v>71237</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>86910</v>
+        <v>87398</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.6722133004439411</v>
+        <v>0.672213300443941</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5974719488432608</v>
+        <v>0.6048235072059723</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7378892864744002</v>
+        <v>0.7420293862223727</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>288</v>
@@ -2329,19 +2329,19 @@
         <v>176098</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>164533</v>
+        <v>164354</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>188245</v>
+        <v>187981</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.700111878875695</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6541330623619342</v>
+        <v>0.6534212991744354</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7484075552192514</v>
+        <v>0.7473544080394682</v>
       </c>
     </row>
     <row r="27">
@@ -2358,19 +2358,19 @@
         <v>30877</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>22689</v>
+        <v>22525</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>39882</v>
+        <v>40227</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2308637341107764</v>
+        <v>0.2308637341107765</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1696395975962151</v>
+        <v>0.1684161989573677</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2981933599182425</v>
+        <v>0.300770957927267</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>61</v>
@@ -2379,19 +2379,19 @@
         <v>34718</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>27403</v>
+        <v>26995</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>42876</v>
+        <v>42592</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2947668165176289</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2326565972692135</v>
+        <v>0.2291949208503575</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3640278181591953</v>
+        <v>0.3616135356187539</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>99</v>
@@ -2400,19 +2400,19 @@
         <v>65595</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>54158</v>
+        <v>54140</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>77753</v>
+        <v>76847</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2607874049793137</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2153160782460035</v>
+        <v>0.2152437863766735</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3091225915229119</v>
+        <v>0.3055191548848915</v>
       </c>
     </row>
     <row r="28">
@@ -2504,19 +2504,19 @@
         <v>7312</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3445</v>
+        <v>3365</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>13305</v>
+        <v>13190</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.05435062014341797</v>
+        <v>0.05435062014341799</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02560660302698756</v>
+        <v>0.02501540585172466</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.09889366031567332</v>
+        <v>0.09803964200669962</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5</v>
@@ -2525,19 +2525,19 @@
         <v>3736</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1212</v>
+        <v>1220</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>8427</v>
+        <v>8923</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.04322204547717431</v>
+        <v>0.04322204547717432</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0140209516877332</v>
+        <v>0.01411568009645935</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.09748886833856449</v>
+        <v>0.1032279116989979</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>14</v>
@@ -2546,19 +2546,19 @@
         <v>11048</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6240</v>
+        <v>5767</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>17452</v>
+        <v>17347</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.04999749387257486</v>
+        <v>0.04999749387257485</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02823940490247685</v>
+        <v>0.02609750563303935</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.07897808010279331</v>
+        <v>0.07850280365380333</v>
       </c>
     </row>
     <row r="30">
@@ -2575,19 +2575,19 @@
         <v>31933</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>23157</v>
+        <v>23780</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>42073</v>
+        <v>42546</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2373543584227185</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1721278329699767</v>
+        <v>0.1767531637936484</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3127255541941087</v>
+        <v>0.3162460408378203</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>25</v>
@@ -2596,19 +2596,19 @@
         <v>17574</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>11728</v>
+        <v>11922</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>24286</v>
+        <v>24081</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2033112792693328</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1356811008508201</v>
+        <v>0.1379263170043293</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2809652984395881</v>
+        <v>0.2785929800357344</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>61</v>
@@ -2617,19 +2617,19 @@
         <v>49506</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>38576</v>
+        <v>38747</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>60722</v>
+        <v>62038</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2240378442555887</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1745738227052246</v>
+        <v>0.1753455445113742</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2747948608553548</v>
+        <v>0.2807485718176144</v>
       </c>
     </row>
     <row r="31">
@@ -2646,19 +2646,19 @@
         <v>78379</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>67711</v>
+        <v>67120</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>89419</v>
+        <v>89305</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.5825851123102797</v>
+        <v>0.5825851123102798</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.5032959285247277</v>
+        <v>0.4989005456508552</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.6646507099532164</v>
+        <v>0.6638006596743398</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>66</v>
@@ -2667,19 +2667,19 @@
         <v>45143</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>37650</v>
+        <v>37595</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>53428</v>
+        <v>53151</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.5222610613676535</v>
+        <v>0.5222610613676536</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.4355813286436015</v>
+        <v>0.434944409993731</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.6181194269166713</v>
+        <v>0.614909219419806</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>155</v>
@@ -2688,19 +2688,19 @@
         <v>123521</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>109119</v>
+        <v>110226</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>136183</v>
+        <v>136281</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.558988360812663</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.4938126617790093</v>
+        <v>0.4988229790480719</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.6162872808132305</v>
+        <v>0.6167335789194591</v>
       </c>
     </row>
     <row r="32">
@@ -2717,19 +2717,19 @@
         <v>16913</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>10567</v>
+        <v>10351</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>25769</v>
+        <v>25370</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1257099091235838</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.07854485018254971</v>
+        <v>0.07694055712986393</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1915420257393021</v>
+        <v>0.1885737816265048</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>31</v>
@@ -2738,19 +2738,19 @@
         <v>19985</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>14230</v>
+        <v>13527</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>27605</v>
+        <v>26597</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.2312056138858391</v>
+        <v>0.2312056138858392</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1646296914972674</v>
+        <v>0.1564906903890041</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3193670811663114</v>
+        <v>0.3076982888656121</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>49</v>
@@ -2759,19 +2759,19 @@
         <v>36897</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>27898</v>
+        <v>26977</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>47999</v>
+        <v>46711</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1669763010591735</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1262517305449888</v>
+        <v>0.1220842563465242</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2172165858147863</v>
+        <v>0.2113883590018803</v>
       </c>
     </row>
     <row r="33">
@@ -2863,19 +2863,19 @@
         <v>12899</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>6843</v>
+        <v>6636</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>22182</v>
+        <v>22996</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.03362282428970634</v>
+        <v>0.03362282428970635</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01783562059961501</v>
+        <v>0.01729613036655172</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.05781999161794762</v>
+        <v>0.05993931755555475</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>9</v>
@@ -2884,19 +2884,19 @@
         <v>6577</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>3383</v>
+        <v>2801</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>12634</v>
+        <v>11542</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01842767331810893</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.009477460518070087</v>
+        <v>0.007848250100074089</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.03539917282772748</v>
+        <v>0.0323374672540046</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>20</v>
@@ -2905,19 +2905,19 @@
         <v>19476</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>12062</v>
+        <v>11937</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>29408</v>
+        <v>30004</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.02629951688794395</v>
+        <v>0.02629951688794394</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01628781477727947</v>
+        <v>0.01611853539976845</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.03971058051556846</v>
+        <v>0.04051578345439103</v>
       </c>
     </row>
     <row r="35">
@@ -2934,19 +2934,19 @@
         <v>41198</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>29020</v>
+        <v>27961</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>58752</v>
+        <v>56302</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1073857816928857</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.07564293774512197</v>
+        <v>0.07288116739513108</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1531399220451214</v>
+        <v>0.1467551922256965</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>48</v>
@@ -2955,19 +2955,19 @@
         <v>35721</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>26741</v>
+        <v>26512</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>46518</v>
+        <v>46174</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1000831342646739</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.07492315709127684</v>
+        <v>0.07428058001356853</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1303336388557595</v>
+        <v>0.1293699546944905</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>81</v>
@@ -2976,19 +2976,19 @@
         <v>76919</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>59834</v>
+        <v>61501</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>93914</v>
+        <v>97049</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.103866268654585</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.08079513772795598</v>
+        <v>0.08304665083477983</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1268152351431019</v>
+        <v>0.1310489067749094</v>
       </c>
     </row>
     <row r="36">
@@ -3005,19 +3005,19 @@
         <v>154107</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>132666</v>
+        <v>133369</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>176341</v>
+        <v>176919</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.4016895262739786</v>
+        <v>0.4016895262739785</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3458022247983432</v>
+        <v>0.3476352616350201</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4596445310689132</v>
+        <v>0.4611516125118547</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>198</v>
@@ -3026,19 +3026,19 @@
         <v>161891</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>145214</v>
+        <v>144031</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>180173</v>
+        <v>181552</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.4535868833059771</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.4068610350666366</v>
+        <v>0.4035465658371873</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.5048089655918006</v>
+        <v>0.5086725587685385</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>327</v>
@@ -3047,19 +3047,19 @@
         <v>315998</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>289702</v>
+        <v>288727</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>344337</v>
+        <v>346006</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.4267014724925285</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3911939448766945</v>
+        <v>0.3898774146790756</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.464968389114672</v>
+        <v>0.4672229977860923</v>
       </c>
     </row>
     <row r="37">
@@ -3076,19 +3076,19 @@
         <v>175442</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>153928</v>
+        <v>154893</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>199440</v>
+        <v>198511</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.4573018677434295</v>
+        <v>0.4573018677434294</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.4012225015122843</v>
+        <v>0.4037371074443129</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.5198526560042007</v>
+        <v>0.5174311233661101</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>186</v>
@@ -3097,19 +3097,19 @@
         <v>152724</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>135548</v>
+        <v>134412</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>170328</v>
+        <v>170594</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.4279023091112399</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.3797800521205093</v>
+        <v>0.3765973635174529</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.4772268257913502</v>
+        <v>0.4779703804078053</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>322</v>
@@ -3118,19 +3118,19 @@
         <v>328166</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>300653</v>
+        <v>299124</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>357296</v>
+        <v>357026</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.4431327419649426</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.4059816948101264</v>
+        <v>0.4039167380609311</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.4824676075809192</v>
+        <v>0.4821028420804673</v>
       </c>
     </row>
     <row r="38">
@@ -3222,19 +3222,19 @@
         <v>4338</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>1217</v>
+        <v>1294</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>10581</v>
+        <v>11984</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.009609920548467647</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.002696514115638443</v>
+        <v>0.002866016605162402</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.02344072767814603</v>
+        <v>0.02654936748780757</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>3</v>
@@ -3243,19 +3243,19 @@
         <v>2477</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>730</v>
+        <v>742</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>7225</v>
+        <v>6956</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.00794041730138584</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.002340559014348361</v>
+        <v>0.00237744604498246</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.02316250845336854</v>
+        <v>0.02230104535282517</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>7</v>
@@ -3264,19 +3264,19 @@
         <v>6815</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>2945</v>
+        <v>2738</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>14299</v>
+        <v>14113</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.008927696925000228</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.003858716489597518</v>
+        <v>0.003586572619448932</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.01873292877916656</v>
+        <v>0.01848963945771215</v>
       </c>
     </row>
     <row r="40">
@@ -3293,19 +3293,19 @@
         <v>25555</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>16207</v>
+        <v>16581</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>37066</v>
+        <v>38634</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.05661420359879306</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.03590468790685621</v>
+        <v>0.03673236623578865</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.08211445868243492</v>
+        <v>0.08558967519874484</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>43</v>
@@ -3314,19 +3314,19 @@
         <v>34867</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>25707</v>
+        <v>25782</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>45694</v>
+        <v>45079</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1117816496306922</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.08241694462266168</v>
+        <v>0.08265578716713387</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1464936650249478</v>
+        <v>0.1445234159877012</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>65</v>
@@ -3335,19 +3335,19 @@
         <v>60422</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>46754</v>
+        <v>47772</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>76112</v>
+        <v>77489</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.07915775659583695</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.0612519713701852</v>
+        <v>0.06258516009169532</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.09971356873999226</v>
+        <v>0.1015177317478869</v>
       </c>
     </row>
     <row r="41">
@@ -3364,19 +3364,19 @@
         <v>376361</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>356264</v>
+        <v>358109</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>393428</v>
+        <v>391792</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.8337797658184396</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.7892578010125775</v>
+        <v>0.7933462592056538</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.8715913681664433</v>
+        <v>0.8679651513539435</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>301</v>
@@ -3385,19 +3385,19 @@
         <v>252652</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>239758</v>
+        <v>239183</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>264221</v>
+        <v>264283</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.8099988587249181</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.7686604326679314</v>
+        <v>0.7668173670102217</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.8470864638554443</v>
+        <v>0.8472864593868903</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>619</v>
@@ -3406,19 +3406,19 @@
         <v>629013</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>606499</v>
+        <v>607471</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>650116</v>
+        <v>647921</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.8240619670450362</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.7945664013007382</v>
+        <v>0.7958398163693575</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.851709028732038</v>
+        <v>0.8488332638709207</v>
       </c>
     </row>
     <row r="42">
@@ -3435,19 +3435,19 @@
         <v>45137</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>33154</v>
+        <v>32816</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>60880</v>
+        <v>60837</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.0999961100342998</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.07344833222909751</v>
+        <v>0.07269991570853618</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1348710475579357</v>
+        <v>0.1347762197376535</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>27</v>
@@ -3456,19 +3456,19 @@
         <v>21921</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>15041</v>
+        <v>14835</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>31248</v>
+        <v>31561</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.07027907434300386</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.04822180239866401</v>
+        <v>0.04756082866693349</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1001795153449753</v>
+        <v>0.1011838095510929</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>63</v>
@@ -3477,19 +3477,19 @@
         <v>67059</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>51642</v>
+        <v>52635</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>85446</v>
+        <v>85287</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.08785257943412654</v>
+        <v>0.08785257943412653</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.06765543853516311</v>
+        <v>0.06895694743598474</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1119417557010465</v>
+        <v>0.1117334662472887</v>
       </c>
     </row>
     <row r="43">
@@ -3581,19 +3581,19 @@
         <v>53465</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>38765</v>
+        <v>39484</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>73088</v>
+        <v>71385</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.02804205399084524</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.02033225327566743</v>
+        <v>0.02070912871226455</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.03833468146535501</v>
+        <v>0.03744145533557636</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>47</v>
@@ -3602,19 +3602,19 @@
         <v>35108</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>25457</v>
+        <v>26144</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>45863</v>
+        <v>46882</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.0235061203825458</v>
+        <v>0.02350612038254579</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.01704453025305273</v>
+        <v>0.01750444116982015</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.03070700009097103</v>
+        <v>0.03138963277080736</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>92</v>
@@ -3623,19 +3623,19 @@
         <v>88572</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>69747</v>
+        <v>71602</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>109989</v>
+        <v>111983</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.02604958128945074</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.02051283070069544</v>
+        <v>0.02105861029877179</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.03234816845828612</v>
+        <v>0.03293463106628212</v>
       </c>
     </row>
     <row r="45">
@@ -3652,19 +3652,19 @@
         <v>226027</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>193139</v>
+        <v>194187</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>257585</v>
+        <v>262448</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.118550723851103</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.1013012275338185</v>
+        <v>0.1018505997233145</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1351027438634491</v>
+        <v>0.1376536601415743</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>232</v>
@@ -3673,19 +3673,19 @@
         <v>182469</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>159267</v>
+        <v>159818</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>205816</v>
+        <v>206484</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.1221701136094584</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.1066354692717825</v>
+        <v>0.1070047203702022</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.137801932585157</v>
+        <v>0.1382489949410314</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>418</v>
@@ -3694,19 +3694,19 @@
         <v>408496</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>370697</v>
+        <v>370802</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>451686</v>
+        <v>452325</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.1201405917618755</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.1090239101112838</v>
+        <v>0.1090545875911759</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.1328430794529535</v>
+        <v>0.1330310842850507</v>
       </c>
     </row>
     <row r="46">
@@ -3723,19 +3723,19 @@
         <v>1133289</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>1084301</v>
+        <v>1085674</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>1180477</v>
+        <v>1180697</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>0.5944077996908947</v>
+        <v>0.5944077996908946</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.5687137966519212</v>
+        <v>0.5694336253167128</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.6191577123506464</v>
+        <v>0.6192729852960299</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>1218</v>
@@ -3744,19 +3744,19 @@
         <v>897540</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>862832</v>
+        <v>861313</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>928987</v>
+        <v>931739</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.6009385087121901</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.5777003971742817</v>
+        <v>0.5766830941172061</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.6219937146205197</v>
+        <v>0.6238361642324649</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>2231</v>
@@ -3765,19 +3765,19 @@
         <v>2030829</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>1973853</v>
+        <v>1974654</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>2092576</v>
+        <v>2087885</v>
       </c>
       <c r="U46" s="6" t="n">
-        <v>0.5972765055780076</v>
+        <v>0.5972765055780077</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.5805197180126627</v>
+        <v>0.5807553243082225</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.6154367951154007</v>
+        <v>0.6140569931696537</v>
       </c>
     </row>
     <row r="47">
@@ -3794,19 +3794,19 @@
         <v>493804</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>452267</v>
+        <v>448571</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>540627</v>
+        <v>537096</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>0.2589994224671571</v>
+        <v>0.258999422467157</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.2372129071589393</v>
+        <v>0.2352743504616767</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2835578157080251</v>
+        <v>0.2817056686743167</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>501</v>
@@ -3815,19 +3815,19 @@
         <v>378447</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>349767</v>
+        <v>348262</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>412592</v>
+        <v>409888</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.2533852572958056</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.2341829557702763</v>
+        <v>0.2331752072088819</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.2762466558433899</v>
+        <v>0.2744363030196774</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>902</v>
@@ -3836,19 +3836,19 @@
         <v>872251</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>820790</v>
+        <v>818314</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>925814</v>
+        <v>922648</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.2565333213706661</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.2413981818954793</v>
+        <v>0.2406701173628265</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.2722863382697874</v>
+        <v>0.2713553715022712</v>
       </c>
     </row>
     <row r="48">
